--- a/grupos/4ASV - Estadisticos 2020.xlsx
+++ b/grupos/4ASV - Estadisticos 2020.xlsx
@@ -3250,6 +3250,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4326,7 +4327,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4971,6 +4973,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4ASV - Estadisticos 2020.xlsx
+++ b/grupos/4ASV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="155">
   <si>
     <t>Materia</t>
   </si>
@@ -224,21 +224,42 @@
     <t>BONILLA</t>
   </si>
   <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CANO</t>
+  </si>
+  <si>
+    <t>CISNEROS</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>HERRERA</t>
   </si>
   <si>
     <t>LLAME</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>MANI</t>
   </si>
   <si>
@@ -248,6 +269,33 @@
     <t>MEJIA</t>
   </si>
   <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MONSALVO</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
     <t>RUIZ</t>
   </si>
   <si>
@@ -263,28 +311,64 @@
     <t>LEYVA</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
     <t>PALMA</t>
   </si>
   <si>
+    <t>GUIZA</t>
+  </si>
+  <si>
     <t>GERARDO</t>
   </si>
   <si>
     <t>SERRANO</t>
   </si>
   <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
     <t>SIERRA</t>
   </si>
   <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
     <t>VERA</t>
   </si>
   <si>
     <t>ZAPATA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
   </si>
   <si>
     <t>PINO</t>
@@ -299,21 +383,54 @@
     <t>JOSE EMMANUEL</t>
   </si>
   <si>
+    <t>BRANDON AXEL</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>GABRIEL MARTIN</t>
+  </si>
+  <si>
+    <t>ANGELA ALESSANDRA</t>
+  </si>
+  <si>
     <t>VALERIA</t>
   </si>
   <si>
     <t>JULIO GABRIEL</t>
   </si>
   <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
     <t>CRISTIAN</t>
   </si>
   <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>ZAYRA JOSELIN</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
     <t>DIEGO ABDEL JARIN</t>
   </si>
   <si>
+    <t>WENDY</t>
+  </si>
+  <si>
     <t>AIDA</t>
   </si>
   <si>
+    <t>CESAR</t>
+  </si>
+  <si>
     <t>JUAN CARLOS</t>
   </si>
   <si>
@@ -323,6 +440,36 @@
     <t>JESUS ALEXIS</t>
   </si>
   <si>
+    <t>LETICIA</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>ANGEL GERARDO</t>
+  </si>
+  <si>
+    <t>OSCAR URIEL</t>
+  </si>
+  <si>
+    <t>EDUARDO ULISES</t>
+  </si>
+  <si>
+    <t>JELIN JANET</t>
+  </si>
+  <si>
+    <t>CESAR JOVANI</t>
+  </si>
+  <si>
+    <t>KARLA DENISSE</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
     <t>JESUS JOAN</t>
   </si>
   <si>
@@ -336,153 +483,6 @@
   </si>
   <si>
     <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CANO</t>
-  </si>
-  <si>
-    <t>CISNEROS</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MONSALVO</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>GUIZA</t>
-  </si>
-  <si>
-    <t>CUAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>QUINTERO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>BRANDON AXEL</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>GABRIEL MARTIN</t>
-  </si>
-  <si>
-    <t>ANGELA ALESSANDRA</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ERICA</t>
-  </si>
-  <si>
-    <t>ZAYRA JOSELIN</t>
-  </si>
-  <si>
-    <t>JAVIER FERNANDO</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>WENDY</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>LETICIA</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>ANGEL GERARDO</t>
-  </si>
-  <si>
-    <t>OSCAR URIEL</t>
-  </si>
-  <si>
-    <t>EDUARDO ULISES</t>
-  </si>
-  <si>
-    <t>JELIN JANET</t>
-  </si>
-  <si>
-    <t>CESAR JOVANI</t>
-  </si>
-  <si>
-    <t>KARLA DENISSE</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -978,7 +978,7 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1022,7 +1022,7 @@
         <v>-1</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -1104,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1119,7 +1119,7 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1178,7 +1178,7 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1237,7 +1237,7 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1296,7 +1296,7 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1340,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1399,7 +1399,7 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1414,7 +1414,7 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1455,10 +1455,10 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1517,7 +1517,7 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1532,7 +1532,7 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1576,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1591,7 +1591,7 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1650,7 +1650,7 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1709,7 +1709,7 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1753,7 +1753,7 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1768,7 +1768,7 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1812,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1871,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1886,7 +1886,7 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1930,7 +1930,7 @@
         <v>-1</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1989,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2004,7 +2004,7 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2063,7 +2063,7 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2107,7 +2107,7 @@
         <v>-1</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -2166,7 +2166,7 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2181,7 +2181,7 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2225,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2284,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -2299,7 +2299,7 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -2358,7 +2358,7 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2390,7 +2390,7 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -2425,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2440,7 +2440,7 @@
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2484,7 +2484,7 @@
         <v>7</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2499,7 +2499,7 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2543,7 +2543,7 @@
         <v>7</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -2558,7 +2558,7 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2602,7 +2602,7 @@
         <v>8</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -2617,7 +2617,7 @@
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2661,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -2720,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2779,7 +2779,7 @@
         <v>-1</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2838,7 +2838,7 @@
         <v>-1</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -2897,7 +2897,7 @@
         <v>-1</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -2956,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I39">
         <v>-1</v>
@@ -3219,22 +3219,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>79.41</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H7">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3244,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3282,16 +3282,16 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3302,16 +3302,16 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3322,30 +3322,30 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920247</v>
+        <v>19330051920246</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -3362,10 +3362,10 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -3382,16 +3382,16 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3402,110 +3402,110 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920251</v>
+        <v>19330051920247</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920252</v>
+        <v>19330051920247</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920252</v>
+        <v>19330051920248</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920252</v>
+        <v>19330051920248</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920252</v>
+        <v>19330051920248</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -3516,76 +3516,76 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920433</v>
+        <v>19330051920248</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920433</v>
+        <v>17330051920369</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920433</v>
+        <v>19330051920249</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920259</v>
+        <v>19330051920249</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -3596,16 +3596,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920259</v>
+        <v>19330051920249</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -3616,16 +3616,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920259</v>
+        <v>19330051920249</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -3636,156 +3636,156 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920259</v>
+        <v>19330051920250</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920260</v>
+        <v>19330051920250</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920261</v>
+        <v>19330051920250</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920261</v>
+        <v>19330051920250</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920261</v>
+        <v>19330051920251</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920261</v>
+        <v>19330051920251</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920261</v>
+        <v>19330051920251</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920265</v>
+        <v>19330051920251</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -3796,116 +3796,116 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920265</v>
+        <v>19330051920252</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920265</v>
+        <v>19330051920252</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920265</v>
+        <v>19330051920252</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920265</v>
+        <v>19330051920252</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920264</v>
+        <v>19330051920252</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920264</v>
+        <v>19330051920253</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -3916,76 +3916,76 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920264</v>
+        <v>19330051920253</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920264</v>
+        <v>19330051920253</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920408</v>
+        <v>19330051920253</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920408</v>
+        <v>19330051920433</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -3996,176 +3996,176 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920408</v>
+        <v>19330051920433</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920409</v>
+        <v>19330051920433</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920409</v>
+        <v>19330051920433</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920409</v>
+        <v>19330051920433</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920409</v>
+        <v>19330051920256</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920411</v>
+        <v>19330051920256</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920411</v>
+        <v>19330051920256</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920411</v>
+        <v>19330051920256</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920411</v>
+        <v>19330051920254</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -4176,76 +4176,76 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920411</v>
+        <v>19330051920254</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920412</v>
+        <v>19330051920254</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920412</v>
+        <v>19330051920254</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920412</v>
+        <v>19330051920258</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -4256,36 +4256,36 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920412</v>
+        <v>19330051920258</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920412</v>
+        <v>19330051920258</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -4296,22 +4296,2002 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
+        <v>19330051920258</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>19330051920257</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>19330051920257</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>19330051920257</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>19330051920257</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>19330051920259</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>19330051920259</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>19330051920259</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>19330051920259</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>19330051920259</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>19330051920255</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19330051920255</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>19330051920255</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>19330051920255</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>19330051920260</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>19330051920260</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>19330051920260</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19330051920260</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>19330051920263</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>19330051920263</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>19330051920263</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19330051920263</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920261</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920261</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920261</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920261</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19330051920261</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>19330051920265</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>19330051920265</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>19330051920265</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>19330051920265</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>19330051920265</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>19330051920264</v>
+      </c>
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>19330051920264</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>19330051920264</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>19330051920264</v>
+      </c>
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>19330051920267</v>
+      </c>
+      <c r="B89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>19330051920267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>19330051920267</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>19330051920267</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>19330051920266</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" t="s">
+        <v>141</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>19330051920266</v>
+      </c>
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>19330051920266</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>19330051920266</v>
+      </c>
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>19330051920266</v>
+      </c>
+      <c r="B97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>19330051920402</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>19330051920402</v>
+      </c>
+      <c r="B99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>19330051920402</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>19330051920402</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>19330051920400</v>
+      </c>
+      <c r="B102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>19330051920400</v>
+      </c>
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>19330051920400</v>
+      </c>
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>19330051920400</v>
+      </c>
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>17330051920176</v>
+      </c>
+      <c r="B106" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>19330051920403</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>19330051920403</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" t="s">
+        <v>67</v>
+      </c>
+      <c r="D108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>19330051920403</v>
+      </c>
+      <c r="B109" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>19330051920403</v>
+      </c>
+      <c r="B110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" t="s">
+        <v>145</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>19330051920348</v>
+      </c>
+      <c r="B111" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>19330051920348</v>
+      </c>
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>19330051920348</v>
+      </c>
+      <c r="B113" t="s">
+        <v>88</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>146</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>19330051920348</v>
+      </c>
+      <c r="B114" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>19330051920405</v>
+      </c>
+      <c r="B115" t="s">
+        <v>89</v>
+      </c>
+      <c r="C115" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>19330051920405</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>19330051920405</v>
+      </c>
+      <c r="B117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>19330051920405</v>
+      </c>
+      <c r="B118" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>19330051920406</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>19330051920406</v>
+      </c>
+      <c r="B120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" t="s">
+        <v>148</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>19330051920406</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
+      <c r="D121" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>19330051920406</v>
+      </c>
+      <c r="B122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>19330051920407</v>
+      </c>
+      <c r="B123" t="s">
+        <v>91</v>
+      </c>
+      <c r="C123" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>19330051920407</v>
+      </c>
+      <c r="B124" t="s">
+        <v>91</v>
+      </c>
+      <c r="C124" t="s">
+        <v>93</v>
+      </c>
+      <c r="D124" t="s">
+        <v>149</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>19330051920407</v>
+      </c>
+      <c r="B125" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" t="s">
+        <v>93</v>
+      </c>
+      <c r="D125" t="s">
+        <v>149</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>19330051920407</v>
+      </c>
+      <c r="B126" t="s">
+        <v>91</v>
+      </c>
+      <c r="C126" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>19330051920407</v>
+      </c>
+      <c r="B127" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" t="s">
+        <v>93</v>
+      </c>
+      <c r="D127" t="s">
+        <v>149</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>19330051920408</v>
+      </c>
+      <c r="B128" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>19330051920408</v>
+      </c>
+      <c r="B129" t="s">
+        <v>92</v>
+      </c>
+      <c r="C129" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" t="s">
+        <v>150</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>19330051920408</v>
+      </c>
+      <c r="B130" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" t="s">
+        <v>76</v>
+      </c>
+      <c r="D130" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>19330051920408</v>
+      </c>
+      <c r="B131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" t="s">
+        <v>76</v>
+      </c>
+      <c r="D131" t="s">
+        <v>150</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>19330051920408</v>
+      </c>
+      <c r="B132" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" t="s">
+        <v>150</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>19330051920409</v>
+      </c>
+      <c r="B133" t="s">
+        <v>93</v>
+      </c>
+      <c r="C133" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>19330051920409</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" t="s">
+        <v>97</v>
+      </c>
+      <c r="D134" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>19330051920409</v>
+      </c>
+      <c r="B135" t="s">
+        <v>93</v>
+      </c>
+      <c r="C135" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>19330051920409</v>
+      </c>
+      <c r="B136" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>19330051920409</v>
+      </c>
+      <c r="B137" t="s">
+        <v>93</v>
+      </c>
+      <c r="C137" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>19330051920411</v>
+      </c>
+      <c r="B138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C138" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138" t="s">
+        <v>152</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>19330051920411</v>
+      </c>
+      <c r="B139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" t="s">
+        <v>152</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>19330051920411</v>
+      </c>
+      <c r="B140" t="s">
+        <v>93</v>
+      </c>
+      <c r="C140" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" t="s">
+        <v>152</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>19330051920411</v>
+      </c>
+      <c r="B141" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>19330051920411</v>
+      </c>
+      <c r="B142" t="s">
+        <v>93</v>
+      </c>
+      <c r="C142" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>19330051920412</v>
+      </c>
+      <c r="B143" t="s">
+        <v>94</v>
+      </c>
+      <c r="C143" t="s">
+        <v>93</v>
+      </c>
+      <c r="D143" t="s">
+        <v>153</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>19330051920412</v>
+      </c>
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+      <c r="C144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D144" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>19330051920412</v>
+      </c>
+      <c r="B145" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" t="s">
+        <v>93</v>
+      </c>
+      <c r="D145" t="s">
+        <v>153</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>19330051920412</v>
+      </c>
+      <c r="B146" t="s">
+        <v>94</v>
+      </c>
+      <c r="C146" t="s">
+        <v>93</v>
+      </c>
+      <c r="D146" t="s">
+        <v>153</v>
+      </c>
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>19330051920412</v>
+      </c>
+      <c r="B147" t="s">
+        <v>94</v>
+      </c>
+      <c r="C147" t="s">
+        <v>93</v>
+      </c>
+      <c r="D147" t="s">
+        <v>153</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
         <v>19330051920414</v>
       </c>
-      <c r="B53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="B148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" t="s">
+        <v>118</v>
+      </c>
+      <c r="D148" t="s">
+        <v>154</v>
+      </c>
+      <c r="E148" t="s">
         <v>6</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F148" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>19330051920414</v>
+      </c>
+      <c r="B149" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" t="s">
+        <v>118</v>
+      </c>
+      <c r="D149" t="s">
+        <v>154</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>19330051920414</v>
+      </c>
+      <c r="B150" t="s">
+        <v>95</v>
+      </c>
+      <c r="C150" t="s">
+        <v>118</v>
+      </c>
+      <c r="D150" t="s">
+        <v>154</v>
+      </c>
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>19330051920414</v>
+      </c>
+      <c r="B151" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" t="s">
+        <v>118</v>
+      </c>
+      <c r="D151" t="s">
+        <v>154</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>19330051920414</v>
+      </c>
+      <c r="B152" t="s">
+        <v>95</v>
+      </c>
+      <c r="C152" t="s">
+        <v>118</v>
+      </c>
+      <c r="D152" t="s">
+        <v>154</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4353,13 +6333,13 @@
         <v>19330051920261</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -4370,13 +6350,13 @@
         <v>19330051920265</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4387,13 +6367,13 @@
         <v>19330051920411</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -4404,13 +6384,13 @@
         <v>19330051920412</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -4424,10 +6404,10 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -4438,13 +6418,13 @@
         <v>19330051920252</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -4455,13 +6435,13 @@
         <v>19330051920259</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -4472,13 +6452,13 @@
         <v>19330051920264</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4489,13 +6469,13 @@
         <v>19330051920409</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -4509,10 +6489,10 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -4520,16 +6500,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920433</v>
+        <v>19330051920408</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4537,19 +6517,19 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920408</v>
+        <v>19330051920433</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4557,13 +6537,13 @@
         <v>19330051920251</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4574,13 +6554,13 @@
         <v>19330051920260</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4591,13 +6571,13 @@
         <v>19330051920414</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4608,13 +6588,13 @@
         <v>19330051920248</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4625,13 +6605,13 @@
         <v>17330051920369</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4642,13 +6622,13 @@
         <v>19330051920249</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4659,13 +6639,13 @@
         <v>19330051920250</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4676,13 +6656,13 @@
         <v>19330051920253</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4693,13 +6673,13 @@
         <v>19330051920256</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4710,13 +6690,13 @@
         <v>19330051920254</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4727,13 +6707,13 @@
         <v>19330051920258</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4744,13 +6724,13 @@
         <v>19330051920257</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4761,13 +6741,13 @@
         <v>19330051920255</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4778,13 +6758,13 @@
         <v>19330051920263</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4795,13 +6775,13 @@
         <v>19330051920267</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4812,13 +6792,13 @@
         <v>19330051920266</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4829,13 +6809,13 @@
         <v>19330051920402</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4846,13 +6826,13 @@
         <v>19330051920400</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4863,13 +6843,13 @@
         <v>17330051920176</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4880,13 +6860,13 @@
         <v>19330051920403</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4897,13 +6877,13 @@
         <v>19330051920348</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4914,13 +6894,13 @@
         <v>19330051920405</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4931,13 +6911,13 @@
         <v>19330051920406</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4948,13 +6928,13 @@
         <v>19330051920407</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -4967,7 +6947,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5002,140 +6982,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920260</v>
+        <v>17330051920369</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920260</v>
+        <v>17330051920176</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920251</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920258</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920403</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920414</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ASV - Estadisticos 2020.xlsx
+++ b/grupos/4ASV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="155">
   <si>
     <t>Materia</t>
   </si>
@@ -197,15 +197,15 @@
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
     <t>Pesce Bautista Victor Manuel</t>
   </si>
   <si>
     <t>Sánchez Sánchez Miguel</t>
   </si>
   <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -227,262 +227,262 @@
     <t>CASTILLO</t>
   </si>
   <si>
+    <t>CISNEROS</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>LLAME</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MANI</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MONSALVO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANTILLANA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>GUIZA</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>LUENGAS</t>
+  </si>
+  <si>
+    <t>MOISES EFRAIN</t>
+  </si>
+  <si>
+    <t>JOSE EMMANUEL</t>
+  </si>
+  <si>
+    <t>BRANDON AXEL</t>
+  </si>
+  <si>
+    <t>GABRIEL MARTIN</t>
+  </si>
+  <si>
+    <t>ANGELA ALESSANDRA</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>JULIO GABRIEL</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>ZAYRA JOSELIN</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>DIEGO ABDEL JARIN</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>JESUS ALEXIS</t>
+  </si>
+  <si>
+    <t>LETICIA</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>ANGEL GERARDO</t>
+  </si>
+  <si>
+    <t>EDUARDO ULISES</t>
+  </si>
+  <si>
+    <t>JELIN JANET</t>
+  </si>
+  <si>
+    <t>CESAR JOVANI</t>
+  </si>
+  <si>
+    <t>KARLA DENISSE</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>JESUS JOAN</t>
+  </si>
+  <si>
+    <t>RICARDO ISIDRO</t>
+  </si>
+  <si>
+    <t>CESAR JAHIR</t>
+  </si>
+  <si>
+    <t>CESAR GAEL</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
     <t>CANO</t>
   </si>
   <si>
-    <t>CISNEROS</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>LLAME</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MANI</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MONSALVO</t>
-  </si>
-  <si>
     <t>OCHOA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SANTILLANA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>ORTEGA</t>
   </si>
   <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>GUIZA</t>
-  </si>
-  <si>
-    <t>GERARDO</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>CUAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZAPATA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>QUINTERO</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>PINO</t>
-  </si>
-  <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
-    <t>BRANDON AXEL</t>
-  </si>
-  <si>
     <t>OMAR</t>
   </si>
   <si>
-    <t>GABRIEL MARTIN</t>
-  </si>
-  <si>
-    <t>ANGELA ALESSANDRA</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>JULIO GABRIEL</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>ERICA</t>
-  </si>
-  <si>
-    <t>ZAYRA JOSELIN</t>
-  </si>
-  <si>
-    <t>JAVIER FERNANDO</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>DIEGO ABDEL JARIN</t>
-  </si>
-  <si>
-    <t>WENDY</t>
-  </si>
-  <si>
-    <t>AIDA</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>JESUS ALEXIS</t>
-  </si>
-  <si>
-    <t>LETICIA</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>ANGEL GERARDO</t>
-  </si>
-  <si>
     <t>OSCAR URIEL</t>
-  </si>
-  <si>
-    <t>EDUARDO ULISES</t>
-  </si>
-  <si>
-    <t>JELIN JANET</t>
-  </si>
-  <si>
-    <t>CESAR JOVANI</t>
-  </si>
-  <si>
-    <t>KARLA DENISSE</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>JESUS JOAN</t>
-  </si>
-  <si>
-    <t>RICARDO ISIDRO</t>
-  </si>
-  <si>
-    <t>CESAR JAHIR</t>
-  </si>
-  <si>
-    <t>CESAR GAEL</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
   </si>
 </sst>
 </file>
@@ -951,10 +951,10 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -966,13 +966,13 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -1025,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -1072,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1107,13 +1107,13 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>-1</v>
@@ -1166,13 +1166,13 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1225,13 +1225,13 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1284,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>-1</v>
@@ -1325,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1343,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>-1</v>
@@ -1402,13 +1402,13 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>-1</v>
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1461,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>-1</v>
@@ -1473,7 +1473,7 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1520,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1579,13 +1579,13 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>-1</v>
@@ -1638,13 +1638,13 @@
         <v>9</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1697,13 +1697,13 @@
         <v>9</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1756,13 +1756,13 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1797,13 +1797,13 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>-1</v>
@@ -1815,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>-1</v>
@@ -1859,7 +1859,7 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -1874,13 +1874,13 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -1933,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -1992,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>-1</v>
@@ -2033,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2051,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2092,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2110,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>-1</v>
@@ -2169,13 +2169,13 @@
         <v>10</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <v>-1</v>
@@ -2228,19 +2228,19 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>-1</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2287,13 +2287,13 @@
         <v>9</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
         <v>-1</v>
@@ -2346,13 +2346,13 @@
         <v>9</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>-1</v>
@@ -2393,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2428,13 +2428,13 @@
         <v>10</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L30">
         <v>-1</v>
@@ -2487,13 +2487,13 @@
         <v>9</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <v>-1</v>
@@ -2546,13 +2546,13 @@
         <v>9</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2605,13 +2605,13 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
         <v>-1</v>
@@ -2664,10 +2664,10 @@
         <v>9</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <v>-1</v>
@@ -2705,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>-1</v>
@@ -2723,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>-1</v>
@@ -2776,13 +2776,13 @@
         <v>-1</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H36">
         <v>5</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <v>-1</v>
@@ -2794,7 +2794,7 @@
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -2823,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>5</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>-1</v>
@@ -2882,7 +2882,7 @@
         <v>5</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -2900,7 +2900,7 @@
         <v>7</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -2959,13 +2959,13 @@
         <v>9</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J39">
         <v>-1</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <v>-1</v>
@@ -3056,25 +3056,22 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>55.88</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>14.71</v>
-      </c>
-      <c r="H2">
-        <v>7.5</v>
+        <v>70.59</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J2">
-        <v>29.41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3091,16 +3088,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>58.82</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I3">
         <v>14</v>
@@ -3120,62 +3117,62 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>64.70999999999999</v>
+        <v>61.76</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8.82</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>35.29</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>70.59</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>14.71</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3184,57 +3181,57 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>77.78</v>
+      </c>
+      <c r="G6">
+        <v>22.22</v>
+      </c>
+      <c r="H6">
+        <v>8.1</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>75</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>79.41</v>
+        <v>86.11</v>
       </c>
       <c r="G7">
-        <v>2.94</v>
+        <v>13.89</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>17.65</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3282,10 +3279,10 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3296,62 +3293,62 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920246</v>
+        <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920246</v>
+        <v>19330051920247</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920246</v>
+        <v>19330051920247</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3362,110 +3359,110 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920247</v>
+        <v>19330051920248</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920247</v>
+        <v>19330051920249</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920247</v>
+        <v>19330051920250</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920247</v>
+        <v>19330051920251</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920248</v>
+        <v>19330051920251</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3476,33 +3473,33 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920248</v>
+        <v>19330051920251</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920248</v>
+        <v>19330051920252</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
         <v>121</v>
@@ -3516,56 +3513,56 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920248</v>
+        <v>19330051920252</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>17330051920369</v>
+        <v>19330051920252</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920249</v>
+        <v>19330051920252</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -3576,30 +3573,30 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920249</v>
+        <v>19330051920253</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920249</v>
+        <v>19330051920433</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
@@ -3608,18 +3605,18 @@
         <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920249</v>
+        <v>19330051920433</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>99</v>
@@ -3628,38 +3625,38 @@
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920250</v>
+        <v>19330051920433</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920250</v>
+        <v>19330051920256</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>100</v>
@@ -3676,196 +3673,196 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920250</v>
+        <v>19330051920254</v>
       </c>
       <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920250</v>
+        <v>19330051920258</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920251</v>
+        <v>19330051920257</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920251</v>
+        <v>19330051920259</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920251</v>
+        <v>19330051920259</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920251</v>
+        <v>19330051920259</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920252</v>
+        <v>19330051920259</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920252</v>
+        <v>19330051920255</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920252</v>
+        <v>19330051920260</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920252</v>
+        <v>19330051920263</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -3876,36 +3873,36 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920252</v>
+        <v>19330051920261</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920253</v>
+        <v>19330051920261</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -3916,136 +3913,136 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920253</v>
+        <v>19330051920261</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920253</v>
+        <v>19330051920261</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920253</v>
+        <v>19330051920265</v>
       </c>
       <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920433</v>
+        <v>19330051920265</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920433</v>
+        <v>19330051920265</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920433</v>
+        <v>19330051920265</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920433</v>
+        <v>19330051920264</v>
       </c>
       <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s">
-        <v>102</v>
-      </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -4056,36 +4053,36 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920433</v>
+        <v>19330051920264</v>
       </c>
       <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
         <v>75</v>
       </c>
-      <c r="C41" t="s">
-        <v>102</v>
-      </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920256</v>
+        <v>19330051920264</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -4096,136 +4093,136 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920256</v>
+        <v>19330051920267</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920256</v>
+        <v>19330051920266</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920256</v>
+        <v>19330051920266</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920254</v>
+        <v>19330051920402</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920254</v>
+        <v>19330051920400</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920254</v>
+        <v>19330051920403</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920254</v>
+        <v>19330051920348</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -4236,116 +4233,116 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920258</v>
+        <v>19330051920405</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920258</v>
+        <v>19330051920406</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920258</v>
+        <v>19330051920407</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920258</v>
+        <v>19330051920407</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920257</v>
+        <v>19330051920407</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920257</v>
+        <v>19330051920408</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -4356,16 +4353,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920257</v>
+        <v>19330051920408</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -4376,16 +4373,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920257</v>
+        <v>19330051920408</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -4396,76 +4393,76 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920259</v>
+        <v>19330051920408</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920259</v>
+        <v>19330051920409</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920259</v>
+        <v>19330051920409</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920259</v>
+        <v>19330051920409</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
@@ -4476,36 +4473,36 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920259</v>
+        <v>19330051920411</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920255</v>
+        <v>19330051920411</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -4516,1782 +4513,182 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920255</v>
+        <v>19330051920411</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920255</v>
+        <v>19330051920411</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920255</v>
+        <v>19330051920412</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920260</v>
+        <v>19330051920412</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920260</v>
+        <v>19330051920412</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920260</v>
+        <v>19330051920412</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920260</v>
+        <v>19330051920414</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920263</v>
+        <v>19330051920414</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920263</v>
+        <v>19330051920414</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920263</v>
-      </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920263</v>
-      </c>
-      <c r="B74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920261</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" t="s">
-        <v>137</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920261</v>
-      </c>
-      <c r="B76" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" t="s">
-        <v>137</v>
-      </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920261</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920261</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920261</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" t="s">
-        <v>137</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920265</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920265</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920265</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920265</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920265</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" t="s">
-        <v>138</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920264</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920264</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920264</v>
-      </c>
-      <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920264</v>
-      </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" t="s">
-        <v>139</v>
-      </c>
-      <c r="E88" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920267</v>
-      </c>
-      <c r="B89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C89" t="s">
-        <v>110</v>
-      </c>
-      <c r="D89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920267</v>
-      </c>
-      <c r="B90" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" t="s">
-        <v>110</v>
-      </c>
-      <c r="D90" t="s">
-        <v>140</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920267</v>
-      </c>
-      <c r="B91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920267</v>
-      </c>
-      <c r="B92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920266</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" t="s">
-        <v>141</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920266</v>
-      </c>
-      <c r="B94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" t="s">
-        <v>110</v>
-      </c>
-      <c r="D94" t="s">
-        <v>141</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920266</v>
-      </c>
-      <c r="B95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C95" t="s">
-        <v>110</v>
-      </c>
-      <c r="D95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920266</v>
-      </c>
-      <c r="B96" t="s">
-        <v>83</v>
-      </c>
-      <c r="C96" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" t="s">
-        <v>141</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920266</v>
-      </c>
-      <c r="B97" t="s">
-        <v>83</v>
-      </c>
-      <c r="C97" t="s">
-        <v>110</v>
-      </c>
-      <c r="D97" t="s">
-        <v>141</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920402</v>
-      </c>
-      <c r="B98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920402</v>
-      </c>
-      <c r="B99" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920402</v>
-      </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" t="s">
-        <v>142</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920402</v>
-      </c>
-      <c r="B101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920400</v>
-      </c>
-      <c r="B102" t="s">
-        <v>85</v>
-      </c>
-      <c r="C102" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" t="s">
-        <v>143</v>
-      </c>
-      <c r="E102" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920400</v>
-      </c>
-      <c r="B103" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" t="s">
-        <v>143</v>
-      </c>
-      <c r="E103" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920400</v>
-      </c>
-      <c r="B104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C104" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920400</v>
-      </c>
-      <c r="B105" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>17330051920176</v>
-      </c>
-      <c r="B106" t="s">
-        <v>86</v>
-      </c>
-      <c r="C106" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920403</v>
-      </c>
-      <c r="B107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" t="s">
-        <v>145</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920403</v>
-      </c>
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" t="s">
-        <v>67</v>
-      </c>
-      <c r="D108" t="s">
-        <v>145</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920403</v>
-      </c>
-      <c r="B109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109" t="s">
-        <v>67</v>
-      </c>
-      <c r="D109" t="s">
-        <v>145</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920403</v>
-      </c>
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D110" t="s">
-        <v>145</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920348</v>
-      </c>
-      <c r="B111" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111" t="s">
-        <v>146</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920348</v>
-      </c>
-      <c r="B112" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" t="s">
-        <v>114</v>
-      </c>
-      <c r="D112" t="s">
-        <v>146</v>
-      </c>
-      <c r="E112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920348</v>
-      </c>
-      <c r="B113" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" t="s">
-        <v>114</v>
-      </c>
-      <c r="D113" t="s">
-        <v>146</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920348</v>
-      </c>
-      <c r="B114" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" t="s">
-        <v>114</v>
-      </c>
-      <c r="D114" t="s">
-        <v>146</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920405</v>
-      </c>
-      <c r="B115" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115" t="s">
-        <v>115</v>
-      </c>
-      <c r="D115" t="s">
-        <v>147</v>
-      </c>
-      <c r="E115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920405</v>
-      </c>
-      <c r="B116" t="s">
-        <v>89</v>
-      </c>
-      <c r="C116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" t="s">
-        <v>147</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920405</v>
-      </c>
-      <c r="B117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C117" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" t="s">
-        <v>147</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920405</v>
-      </c>
-      <c r="B118" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" t="s">
-        <v>115</v>
-      </c>
-      <c r="D118" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920406</v>
-      </c>
-      <c r="B119" t="s">
-        <v>90</v>
-      </c>
-      <c r="C119" t="s">
-        <v>116</v>
-      </c>
-      <c r="D119" t="s">
-        <v>148</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920406</v>
-      </c>
-      <c r="B120" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" t="s">
-        <v>116</v>
-      </c>
-      <c r="D120" t="s">
-        <v>148</v>
-      </c>
-      <c r="E120" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920406</v>
-      </c>
-      <c r="B121" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" t="s">
-        <v>116</v>
-      </c>
-      <c r="D121" t="s">
-        <v>148</v>
-      </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-      <c r="F121" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920406</v>
-      </c>
-      <c r="B122" t="s">
-        <v>90</v>
-      </c>
-      <c r="C122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D122" t="s">
-        <v>148</v>
-      </c>
-      <c r="E122" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920407</v>
-      </c>
-      <c r="B123" t="s">
-        <v>91</v>
-      </c>
-      <c r="C123" t="s">
-        <v>93</v>
-      </c>
-      <c r="D123" t="s">
-        <v>149</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920407</v>
-      </c>
-      <c r="B124" t="s">
-        <v>91</v>
-      </c>
-      <c r="C124" t="s">
-        <v>93</v>
-      </c>
-      <c r="D124" t="s">
-        <v>149</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920407</v>
-      </c>
-      <c r="B125" t="s">
-        <v>91</v>
-      </c>
-      <c r="C125" t="s">
-        <v>93</v>
-      </c>
-      <c r="D125" t="s">
-        <v>149</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920407</v>
-      </c>
-      <c r="B126" t="s">
-        <v>91</v>
-      </c>
-      <c r="C126" t="s">
-        <v>93</v>
-      </c>
-      <c r="D126" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920407</v>
-      </c>
-      <c r="B127" t="s">
-        <v>91</v>
-      </c>
-      <c r="C127" t="s">
-        <v>93</v>
-      </c>
-      <c r="D127" t="s">
-        <v>149</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920408</v>
-      </c>
-      <c r="B128" t="s">
-        <v>92</v>
-      </c>
-      <c r="C128" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" t="s">
-        <v>150</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920408</v>
-      </c>
-      <c r="B129" t="s">
-        <v>92</v>
-      </c>
-      <c r="C129" t="s">
-        <v>76</v>
-      </c>
-      <c r="D129" t="s">
-        <v>150</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920408</v>
-      </c>
-      <c r="B130" t="s">
-        <v>92</v>
-      </c>
-      <c r="C130" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" t="s">
-        <v>150</v>
-      </c>
-      <c r="E130" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920408</v>
-      </c>
-      <c r="B131" t="s">
-        <v>92</v>
-      </c>
-      <c r="C131" t="s">
-        <v>76</v>
-      </c>
-      <c r="D131" t="s">
-        <v>150</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920408</v>
-      </c>
-      <c r="B132" t="s">
-        <v>92</v>
-      </c>
-      <c r="C132" t="s">
-        <v>76</v>
-      </c>
-      <c r="D132" t="s">
-        <v>150</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920409</v>
-      </c>
-      <c r="B133" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" t="s">
-        <v>97</v>
-      </c>
-      <c r="D133" t="s">
-        <v>151</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920409</v>
-      </c>
-      <c r="B134" t="s">
-        <v>93</v>
-      </c>
-      <c r="C134" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134" t="s">
-        <v>151</v>
-      </c>
-      <c r="E134" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920409</v>
-      </c>
-      <c r="B135" t="s">
-        <v>93</v>
-      </c>
-      <c r="C135" t="s">
-        <v>97</v>
-      </c>
-      <c r="D135" t="s">
-        <v>151</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920409</v>
-      </c>
-      <c r="B136" t="s">
-        <v>93</v>
-      </c>
-      <c r="C136" t="s">
-        <v>97</v>
-      </c>
-      <c r="D136" t="s">
-        <v>151</v>
-      </c>
-      <c r="E136" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920409</v>
-      </c>
-      <c r="B137" t="s">
-        <v>93</v>
-      </c>
-      <c r="C137" t="s">
-        <v>97</v>
-      </c>
-      <c r="D137" t="s">
-        <v>151</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920411</v>
-      </c>
-      <c r="B138" t="s">
-        <v>93</v>
-      </c>
-      <c r="C138" t="s">
-        <v>117</v>
-      </c>
-      <c r="D138" t="s">
-        <v>152</v>
-      </c>
-      <c r="E138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920411</v>
-      </c>
-      <c r="B139" t="s">
-        <v>93</v>
-      </c>
-      <c r="C139" t="s">
-        <v>117</v>
-      </c>
-      <c r="D139" t="s">
-        <v>152</v>
-      </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920411</v>
-      </c>
-      <c r="B140" t="s">
-        <v>93</v>
-      </c>
-      <c r="C140" t="s">
-        <v>117</v>
-      </c>
-      <c r="D140" t="s">
-        <v>152</v>
-      </c>
-      <c r="E140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920411</v>
-      </c>
-      <c r="B141" t="s">
-        <v>93</v>
-      </c>
-      <c r="C141" t="s">
-        <v>117</v>
-      </c>
-      <c r="D141" t="s">
-        <v>152</v>
-      </c>
-      <c r="E141" t="s">
-        <v>5</v>
-      </c>
-      <c r="F141" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920411</v>
-      </c>
-      <c r="B142" t="s">
-        <v>93</v>
-      </c>
-      <c r="C142" t="s">
-        <v>117</v>
-      </c>
-      <c r="D142" t="s">
-        <v>152</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920412</v>
-      </c>
-      <c r="B143" t="s">
-        <v>94</v>
-      </c>
-      <c r="C143" t="s">
-        <v>93</v>
-      </c>
-      <c r="D143" t="s">
-        <v>153</v>
-      </c>
-      <c r="E143" t="s">
-        <v>8</v>
-      </c>
-      <c r="F143" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920412</v>
-      </c>
-      <c r="B144" t="s">
-        <v>94</v>
-      </c>
-      <c r="C144" t="s">
-        <v>93</v>
-      </c>
-      <c r="D144" t="s">
-        <v>153</v>
-      </c>
-      <c r="E144" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920412</v>
-      </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" t="s">
-        <v>93</v>
-      </c>
-      <c r="D145" t="s">
-        <v>153</v>
-      </c>
-      <c r="E145" t="s">
-        <v>6</v>
-      </c>
-      <c r="F145" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920412</v>
-      </c>
-      <c r="B146" t="s">
-        <v>94</v>
-      </c>
-      <c r="C146" t="s">
-        <v>93</v>
-      </c>
-      <c r="D146" t="s">
-        <v>153</v>
-      </c>
-      <c r="E146" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920412</v>
-      </c>
-      <c r="B147" t="s">
-        <v>94</v>
-      </c>
-      <c r="C147" t="s">
-        <v>93</v>
-      </c>
-      <c r="D147" t="s">
-        <v>153</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920414</v>
-      </c>
-      <c r="B148" t="s">
-        <v>95</v>
-      </c>
-      <c r="C148" t="s">
-        <v>118</v>
-      </c>
-      <c r="D148" t="s">
-        <v>154</v>
-      </c>
-      <c r="E148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920414</v>
-      </c>
-      <c r="B149" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" t="s">
-        <v>118</v>
-      </c>
-      <c r="D149" t="s">
-        <v>154</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920414</v>
-      </c>
-      <c r="B150" t="s">
-        <v>95</v>
-      </c>
-      <c r="C150" t="s">
-        <v>118</v>
-      </c>
-      <c r="D150" t="s">
-        <v>154</v>
-      </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920414</v>
-      </c>
-      <c r="B151" t="s">
-        <v>95</v>
-      </c>
-      <c r="C151" t="s">
-        <v>118</v>
-      </c>
-      <c r="D151" t="s">
-        <v>154</v>
-      </c>
-      <c r="E151" t="s">
-        <v>7</v>
-      </c>
-      <c r="F151" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920414</v>
-      </c>
-      <c r="B152" t="s">
-        <v>95</v>
-      </c>
-      <c r="C152" t="s">
-        <v>118</v>
-      </c>
-      <c r="D152" t="s">
-        <v>154</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6330,84 +4727,84 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920261</v>
+        <v>19330051920247</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920265</v>
+        <v>19330051920252</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920411</v>
+        <v>19330051920259</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920412</v>
+        <v>19330051920261</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920247</v>
+        <v>19330051920265</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -6415,16 +4812,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920252</v>
+        <v>19330051920408</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -6432,16 +4829,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920259</v>
+        <v>19330051920411</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -6449,16 +4846,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920264</v>
+        <v>19330051920412</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -6466,33 +4863,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920409</v>
+        <v>19330051920251</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920246</v>
+        <v>19330051920433</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -6500,16 +4897,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920408</v>
+        <v>19330051920264</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -6517,104 +4914,104 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920433</v>
+        <v>19330051920407</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920251</v>
+        <v>19330051920409</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920260</v>
+        <v>19330051920414</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920414</v>
+        <v>19330051920266</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920248</v>
+        <v>19330051920246</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>17330051920369</v>
+        <v>19330051920248</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6622,16 +5019,16 @@
         <v>19330051920249</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6639,16 +5036,16 @@
         <v>19330051920250</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6656,16 +5053,16 @@
         <v>19330051920253</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6673,16 +5070,16 @@
         <v>19330051920256</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6690,16 +5087,16 @@
         <v>19330051920254</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6707,16 +5104,16 @@
         <v>19330051920258</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6724,16 +5121,16 @@
         <v>19330051920257</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6741,67 +5138,67 @@
         <v>19330051920255</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920263</v>
+        <v>19330051920260</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920267</v>
+        <v>19330051920263</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920266</v>
+        <v>19330051920267</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6809,16 +5206,16 @@
         <v>19330051920402</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6826,98 +5223,98 @@
         <v>19330051920400</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>17330051920176</v>
+        <v>19330051920403</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920403</v>
+        <v>19330051920348</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920348</v>
+        <v>19330051920405</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920405</v>
+        <v>19330051920406</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920406</v>
+        <v>17330051920369</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6925,16 +5322,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920407</v>
+        <v>17330051920176</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -6947,7 +5344,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6977,53 +5374,490 @@
         <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17330051920369</v>
+        <v>19330051920266</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>17330051920176</v>
+        <v>19330051920266</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920249</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920250</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920257</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920260</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920267</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920400</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920403</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920348</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920405</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920406</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4ASV - Estadisticos 2020.xlsx
+++ b/grupos/4ASV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="155">
   <si>
     <t>Materia</t>
   </si>
@@ -224,57 +224,162 @@
     <t>BONILLA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MANI</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANTILLANA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>LUENGAS</t>
+  </si>
+  <si>
+    <t>MOISES EFRAIN</t>
+  </si>
+  <si>
+    <t>JOSE EMMANUEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>JULIO GABRIEL</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>DIEGO ABDEL JARIN</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>JESUS ALEXIS</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>JESUS JOAN</t>
+  </si>
+  <si>
+    <t>RICARDO ISIDRO</t>
+  </si>
+  <si>
+    <t>CESAR JAHIR</t>
+  </si>
+  <si>
+    <t>CESAR GAEL</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
     <t>CASTILLO</t>
   </si>
   <si>
+    <t>CANO</t>
+  </si>
+  <si>
     <t>CISNEROS</t>
   </si>
   <si>
     <t>CORDOVA</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>GOMEZ</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>LLAME</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MANI</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>MEJIA</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
     <t>MONSALVO</t>
   </si>
   <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
@@ -287,69 +392,33 @@
     <t>ROMAN</t>
   </si>
   <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SANTILLANA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>PALMA</t>
+    <t>ORTEGA</t>
   </si>
   <si>
     <t>GUIZA</t>
   </si>
   <si>
-    <t>GERARDO</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
     <t>CUAHUA</t>
   </si>
   <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
     <t>TZOMPAXTLE</t>
   </si>
   <si>
     <t>VERA</t>
   </si>
   <si>
-    <t>ZAPATA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>CASTELLANOS</t>
   </si>
   <si>
     <t>QUINTERO</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -359,39 +428,21 @@
     <t>JUAREZ</t>
   </si>
   <si>
-    <t>PINO</t>
-  </si>
-  <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
     <t>BRANDON AXEL</t>
   </si>
   <si>
+    <t>OMAR</t>
+  </si>
+  <si>
     <t>GABRIEL MARTIN</t>
   </si>
   <si>
     <t>ANGELA ALESSANDRA</t>
   </si>
   <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>JULIO GABRIEL</t>
-  </si>
-  <si>
     <t>LUIS ANGEL</t>
   </si>
   <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
     <t>ERICA</t>
   </si>
   <si>
@@ -401,12 +452,6 @@
     <t>JAVIER FERNANDO</t>
   </si>
   <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>DIEGO ABDEL JARIN</t>
-  </si>
-  <si>
     <t>WENDY</t>
   </si>
   <si>
@@ -416,27 +461,18 @@
     <t>CESAR</t>
   </si>
   <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>JESUS ALEXIS</t>
-  </si>
-  <si>
     <t>LETICIA</t>
   </si>
   <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
     <t>ALFREDO</t>
   </si>
   <si>
     <t>ANGEL GERARDO</t>
   </si>
   <si>
+    <t>OSCAR URIEL</t>
+  </si>
+  <si>
     <t>EDUARDO ULISES</t>
   </si>
   <si>
@@ -447,42 +483,6 @@
   </si>
   <si>
     <t>KARLA DENISSE</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>JESUS JOAN</t>
-  </si>
-  <si>
-    <t>RICARDO ISIDRO</t>
-  </si>
-  <si>
-    <t>CESAR JAHIR</t>
-  </si>
-  <si>
-    <t>CESAR GAEL</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>CANO</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>OSCAR URIEL</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <v>8</v>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>9</v>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>9</v>
@@ -1411,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>8</v>
@@ -1470,7 +1470,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>9</v>
@@ -1529,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M14">
         <v>8</v>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <v>8</v>
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>6</v>
@@ -1765,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M18">
         <v>8</v>
@@ -1883,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>7</v>
@@ -2178,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M25">
         <v>9</v>
@@ -2296,7 +2296,7 @@
         <v>7</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M27">
         <v>9</v>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -2437,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -2496,7 +2496,7 @@
         <v>10</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -2555,7 +2555,7 @@
         <v>9</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M32">
         <v>8</v>
@@ -2614,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
         <v>9</v>
@@ -2968,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M39">
         <v>-1</v>
@@ -3056,22 +3056,25 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>52.94</v>
       </c>
       <c r="G2">
-        <v>70.59</v>
+        <v>17.65</v>
+      </c>
+      <c r="H2">
+        <v>8.199999999999999</v>
       </c>
       <c r="I2">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>44.12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3241,7 +3244,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3279,10 +3282,10 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3299,10 +3302,10 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -3319,10 +3322,10 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -3339,10 +3342,10 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -3359,10 +3362,10 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -3373,16 +3376,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920248</v>
+        <v>19330051920251</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
         <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -3393,102 +3396,102 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920249</v>
+        <v>19330051920251</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920250</v>
+        <v>19330051920251</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920251</v>
+        <v>19330051920252</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920251</v>
+        <v>19330051920252</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
         <v>96</v>
       </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920251</v>
+        <v>19330051920252</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
         <v>96</v>
       </c>
-      <c r="D12" t="s">
-        <v>120</v>
-      </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3496,153 +3499,153 @@
         <v>19330051920252</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920252</v>
+        <v>19330051920433</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920252</v>
+        <v>19330051920433</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920252</v>
+        <v>19330051920257</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
         <v>98</v>
       </c>
-      <c r="D16" t="s">
-        <v>121</v>
-      </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920253</v>
+        <v>19330051920259</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920433</v>
+        <v>19330051920259</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920433</v>
+        <v>19330051920259</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920433</v>
+        <v>19330051920259</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
         <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -3653,76 +3656,76 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920256</v>
+        <v>19330051920261</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
         <v>100</v>
       </c>
-      <c r="D21" t="s">
-        <v>124</v>
-      </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920254</v>
+        <v>19330051920261</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920258</v>
+        <v>19330051920261</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920257</v>
+        <v>19330051920261</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -3733,136 +3736,136 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920259</v>
+        <v>19330051920265</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920259</v>
+        <v>19330051920265</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920259</v>
+        <v>19330051920265</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920259</v>
+        <v>19330051920265</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920255</v>
+        <v>19330051920264</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920260</v>
+        <v>19330051920264</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920263</v>
+        <v>19330051920264</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -3873,16 +3876,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920261</v>
+        <v>19330051920266</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -3893,116 +3896,116 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920261</v>
+        <v>19330051920266</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920261</v>
+        <v>19330051920407</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920261</v>
+        <v>19330051920407</v>
       </c>
       <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="C35" t="s">
-        <v>106</v>
-      </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920265</v>
+        <v>19330051920407</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920265</v>
+        <v>19330051920408</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920265</v>
+        <v>19330051920408</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -4013,116 +4016,116 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920265</v>
+        <v>19330051920408</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920264</v>
+        <v>19330051920408</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920264</v>
+        <v>19330051920409</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920264</v>
+        <v>19330051920409</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920267</v>
+        <v>19330051920409</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920266</v>
+        <v>19330051920411</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
         <v>107</v>
-      </c>
-      <c r="D44" t="s">
-        <v>136</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -4133,36 +4136,36 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920266</v>
+        <v>19330051920411</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
         <v>107</v>
       </c>
-      <c r="D45" t="s">
-        <v>136</v>
-      </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920402</v>
+        <v>19330051920411</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -4173,96 +4176,96 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920400</v>
+        <v>19330051920411</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920403</v>
+        <v>19330051920412</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920348</v>
+        <v>19330051920412</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920405</v>
+        <v>19330051920412</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920406</v>
+        <v>19330051920412</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -4273,421 +4276,41 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920407</v>
+        <v>19330051920414</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920407</v>
+        <v>19330051920414</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920407</v>
-      </c>
-      <c r="B54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920408</v>
-      </c>
-      <c r="B55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920408</v>
-      </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920408</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920408</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920409</v>
-      </c>
-      <c r="B59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920409</v>
-      </c>
-      <c r="B60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920409</v>
-      </c>
-      <c r="B61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920411</v>
-      </c>
-      <c r="B62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920411</v>
-      </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920411</v>
-      </c>
-      <c r="B64" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920411</v>
-      </c>
-      <c r="B65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920412</v>
-      </c>
-      <c r="B66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920412</v>
-      </c>
-      <c r="B67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920412</v>
-      </c>
-      <c r="B68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920412</v>
-      </c>
-      <c r="B69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" t="s">
-        <v>147</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920414</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920414</v>
-      </c>
-      <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920414</v>
-      </c>
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" t="s">
-        <v>148</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4733,10 +4356,10 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4747,13 +4370,13 @@
         <v>19330051920252</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -4764,13 +4387,13 @@
         <v>19330051920259</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -4781,13 +4404,13 @@
         <v>19330051920261</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4798,13 +4421,13 @@
         <v>19330051920265</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -4815,13 +4438,13 @@
         <v>19330051920408</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -4832,13 +4455,13 @@
         <v>19330051920411</v>
       </c>
       <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -4849,13 +4472,13 @@
         <v>19330051920412</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4866,13 +4489,13 @@
         <v>19330051920251</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -4880,16 +4503,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920433</v>
+        <v>19330051920264</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -4897,16 +4520,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920264</v>
+        <v>19330051920407</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4914,16 +4537,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920407</v>
+        <v>19330051920409</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4931,50 +4554,50 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920409</v>
+        <v>19330051920433</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920414</v>
+        <v>19330051920266</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920266</v>
+        <v>19330051920414</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4988,10 +4611,10 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4999,16 +4622,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920248</v>
+        <v>19330051920257</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5016,302 +4639,302 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920249</v>
+        <v>19330051920248</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920250</v>
+        <v>17330051920369</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920253</v>
+        <v>19330051920249</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920256</v>
+        <v>19330051920250</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920254</v>
+        <v>19330051920253</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920258</v>
+        <v>19330051920256</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920257</v>
+        <v>19330051920254</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920255</v>
+        <v>19330051920258</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920260</v>
+        <v>19330051920255</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920263</v>
+        <v>19330051920260</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920267</v>
+        <v>19330051920263</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920402</v>
+        <v>19330051920267</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920400</v>
+        <v>19330051920402</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920403</v>
+        <v>19330051920400</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920348</v>
+        <v>17330051920176</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920405</v>
+        <v>19330051920403</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920406</v>
+        <v>19330051920348</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>17330051920369</v>
+        <v>19330051920405</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
         <v>153</v>
@@ -5322,13 +4945,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>17330051920176</v>
+        <v>19330051920406</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
         <v>154</v>
@@ -5344,7 +4967,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5382,13 +5005,13 @@
         <v>19330051920266</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -5405,13 +5028,13 @@
         <v>19330051920266</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -5425,22 +5048,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920246</v>
+        <v>19330051920414</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5448,22 +5071,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920248</v>
+        <v>19330051920414</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5471,16 +5094,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920249</v>
+        <v>19330051920246</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -5494,16 +5117,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920250</v>
+        <v>19330051920257</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -5512,351 +5135,6 @@
         <v>56</v>
       </c>
       <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920253</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920256</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920254</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920258</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920257</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920255</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920260</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920263</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920267</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920402</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920400</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920403</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920348</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920405</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920406</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4ASV - Estadisticos 2020.xlsx
+++ b/grupos/4ASV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="155">
   <si>
     <t>Materia</t>
   </si>
@@ -2971,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3152,25 +3152,25 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>70.59</v>
+        <v>73.53</v>
       </c>
       <c r="G5">
-        <v>14.71</v>
+        <v>11.76</v>
       </c>
       <c r="H5">
         <v>7.6</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>29.41</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3244,7 +3244,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4292,26 +4292,6 @@
       </c>
       <c r="F52" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920414</v>
-      </c>
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4588,33 +4568,33 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920414</v>
+        <v>19330051920246</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920246</v>
+        <v>19330051920257</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4622,16 +4602,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920257</v>
+        <v>19330051920414</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4967,7 +4947,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5048,22 +5028,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920414</v>
+        <v>19330051920246</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5071,22 +5051,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920414</v>
+        <v>19330051920257</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5094,47 +5074,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920246</v>
+        <v>19330051920414</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920257</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4ASV - Estadisticos 2020.xlsx
+++ b/grupos/4ASV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="155">
   <si>
     <t>Materia</t>
   </si>
@@ -191,12 +191,12 @@
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
+    <t>Vargas Olvera Francisco Eduardo</t>
+  </si>
+  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
-    <t>Vargas Olvera Francisco Eduardo</t>
-  </si>
-  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
@@ -263,226 +263,226 @@
     <t>SANTILLANA</t>
   </si>
   <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>MOISES EFRAIN</t>
+  </si>
+  <si>
+    <t>JOSE EMMANUEL</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>JULIO GABRIEL</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>DIEGO ABDEL JARIN</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>JESUS ALEXIS</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>JESUS JOAN</t>
+  </si>
+  <si>
+    <t>RICARDO ISIDRO</t>
+  </si>
+  <si>
+    <t>CESAR JAHIR</t>
+  </si>
+  <si>
+    <t>CESAR GAEL</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CANO</t>
+  </si>
+  <si>
+    <t>CISNEROS</t>
+  </si>
+  <si>
+    <t>CORDOVA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>LLAME</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MONSALVO</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
     <t>TREJO</t>
   </si>
   <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>GERARDO</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>GALEOTE</t>
-  </si>
-  <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
-    <t>ZAPATA</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>PINO</t>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>GUIZA</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>QUINTERO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
   </si>
   <si>
     <t>LUENGAS</t>
   </si>
   <si>
-    <t>MOISES EFRAIN</t>
-  </si>
-  <si>
-    <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>JULIO GABRIEL</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>DIEGO ABDEL JARIN</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>JESUS ALEXIS</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>JESUS JOAN</t>
-  </si>
-  <si>
-    <t>RICARDO ISIDRO</t>
-  </si>
-  <si>
-    <t>CESAR JAHIR</t>
-  </si>
-  <si>
-    <t>CESAR GAEL</t>
+    <t>BRANDON AXEL</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>GABRIEL MARTIN</t>
+  </si>
+  <si>
+    <t>ANGELA ALESSANDRA</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>ZAYRA JOSELIN</t>
+  </si>
+  <si>
+    <t>JAVIER FERNANDO</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>LETICIA</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>ANGEL GERARDO</t>
+  </si>
+  <si>
+    <t>OSCAR URIEL</t>
+  </si>
+  <si>
+    <t>EDUARDO ULISES</t>
+  </si>
+  <si>
+    <t>JELIN JANET</t>
+  </si>
+  <si>
+    <t>CESAR JOVANI</t>
+  </si>
+  <si>
+    <t>KARLA DENISSE</t>
   </si>
   <si>
     <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CANO</t>
-  </si>
-  <si>
-    <t>CISNEROS</t>
-  </si>
-  <si>
-    <t>CORDOVA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>LLAME</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MONSALVO</t>
-  </si>
-  <si>
-    <t>OCHOA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>GUIZA</t>
-  </si>
-  <si>
-    <t>CUAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>QUINTERO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>BRANDON AXEL</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>GABRIEL MARTIN</t>
-  </si>
-  <si>
-    <t>ANGELA ALESSANDRA</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ERICA</t>
-  </si>
-  <si>
-    <t>ZAYRA JOSELIN</t>
-  </si>
-  <si>
-    <t>JAVIER FERNANDO</t>
-  </si>
-  <si>
-    <t>WENDY</t>
-  </si>
-  <si>
-    <t>AIDA</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>LETICIA</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>ANGEL GERARDO</t>
-  </si>
-  <si>
-    <t>OSCAR URIEL</t>
-  </si>
-  <si>
-    <t>EDUARDO ULISES</t>
-  </si>
-  <si>
-    <t>JELIN JANET</t>
-  </si>
-  <si>
-    <t>CESAR JOVANI</t>
-  </si>
-  <si>
-    <t>KARLA DENISSE</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2231,7 @@
         <v>8</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -2944,7 +2944,7 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -2962,7 +2962,7 @@
         <v>8</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3088,30 +3088,30 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>58.82</v>
+        <v>61.76</v>
       </c>
       <c r="G3">
-        <v>5.88</v>
+        <v>8.82</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>41.18</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3120,25 +3120,25 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>61.76</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="G4">
-        <v>8.82</v>
+        <v>2.94</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>38.24</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3244,7 +3244,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3282,10 +3282,10 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -3305,13 +3305,13 @@
         <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3325,7 +3325,7 @@
         <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -3345,13 +3345,13 @@
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3365,7 +3365,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -3382,10 +3382,10 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -3402,16 +3402,16 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3422,16 +3422,16 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3442,16 +3442,16 @@
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3462,10 +3462,10 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -3482,10 +3482,10 @@
         <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -3502,16 +3502,16 @@
         <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3522,16 +3522,16 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3542,16 +3542,16 @@
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3562,10 +3562,10 @@
         <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -3582,16 +3582,16 @@
         <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3602,10 +3602,10 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -3622,10 +3622,10 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -3642,16 +3642,16 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3662,16 +3662,16 @@
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3682,16 +3682,16 @@
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3702,10 +3702,10 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -3722,10 +3722,10 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -3745,13 +3745,13 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3765,7 +3765,7 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -3785,13 +3785,13 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3805,7 +3805,7 @@
         <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -3825,13 +3825,13 @@
         <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3845,13 +3845,13 @@
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3865,7 +3865,7 @@
         <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -3882,36 +3882,36 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920266</v>
+        <v>19330051920407</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3925,13 +3925,13 @@
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3945,33 +3945,33 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920407</v>
+        <v>19330051920408</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3985,10 +3985,10 @@
         <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
         <v>57</v>
@@ -4005,13 +4005,13 @@
         <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4025,33 +4025,33 @@
         <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920408</v>
+        <v>19330051920409</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4062,16 +4062,16 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4082,13 +4082,13 @@
         <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
         <v>58</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920409</v>
+        <v>19330051920411</v>
       </c>
       <c r="B43" t="s">
         <v>79</v>
@@ -4105,13 +4105,13 @@
         <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4122,13 +4122,13 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
         <v>57</v>
@@ -4142,16 +4142,16 @@
         <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4162,36 +4162,36 @@
         <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920411</v>
+        <v>19330051920412</v>
       </c>
       <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
         <v>79</v>
       </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4205,13 +4205,13 @@
         <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4225,13 +4225,13 @@
         <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4245,53 +4245,13 @@
         <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920412</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920414</v>
-      </c>
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4339,7 +4299,7 @@
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4353,10 +4313,10 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -4370,10 +4330,10 @@
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -4387,10 +4347,10 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4407,7 +4367,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -4424,7 +4384,7 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -4438,10 +4398,10 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -4458,7 +4418,7 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4472,10 +4432,10 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -4492,7 +4452,7 @@
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -4509,7 +4469,7 @@
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4523,10 +4483,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4540,10 +4500,10 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4551,33 +4511,33 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920266</v>
+        <v>19330051920246</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920246</v>
+        <v>19330051920257</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4585,16 +4545,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920257</v>
+        <v>19330051920266</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4602,30 +4562,30 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920414</v>
+        <v>19330051920248</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920248</v>
+        <v>17330051920369</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
         <v>136</v>
@@ -4636,13 +4596,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17330051920369</v>
+        <v>19330051920249</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
         <v>137</v>
@@ -4653,13 +4613,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920249</v>
+        <v>19330051920250</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
         <v>138</v>
@@ -4670,13 +4630,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920250</v>
+        <v>19330051920253</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
         <v>139</v>
@@ -4687,13 +4647,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920253</v>
+        <v>19330051920256</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>140</v>
@@ -4704,13 +4664,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920256</v>
+        <v>19330051920254</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>141</v>
@@ -4721,13 +4681,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920254</v>
+        <v>19330051920258</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
         <v>142</v>
@@ -4738,13 +4698,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920258</v>
+        <v>19330051920255</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
         <v>143</v>
@@ -4755,13 +4715,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920255</v>
+        <v>19330051920260</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
         <v>144</v>
@@ -4772,13 +4732,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920260</v>
+        <v>19330051920263</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
         <v>145</v>
@@ -4789,13 +4749,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920263</v>
+        <v>19330051920267</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>146</v>
@@ -4806,13 +4766,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920267</v>
+        <v>19330051920402</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>147</v>
@@ -4823,13 +4783,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920402</v>
+        <v>19330051920400</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
@@ -4840,13 +4800,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920400</v>
+        <v>17330051920176</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
         <v>149</v>
@@ -4857,13 +4817,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>17330051920176</v>
+        <v>19330051920403</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
         <v>150</v>
@@ -4874,13 +4834,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920403</v>
+        <v>19330051920348</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -4891,13 +4851,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920348</v>
+        <v>19330051920405</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
         <v>152</v>
@@ -4908,13 +4868,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920405</v>
+        <v>19330051920406</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
         <v>153</v>
@@ -4925,13 +4885,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920406</v>
+        <v>19330051920414</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
         <v>154</v>
@@ -4947,7 +4907,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4982,22 +4942,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920266</v>
+        <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5005,16 +4965,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920266</v>
+        <v>19330051920257</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -5028,16 +4988,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920246</v>
+        <v>19330051920266</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -5046,52 +5006,6 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920257</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920414</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6">
         <v>-1</v>
       </c>
     </row>
